--- a/Database/Hospitals.xlsx
+++ b/Database/Hospitals.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId1" sheetId="1" name="hospitals"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Index</t>
   </si>
@@ -28,64 +28,67 @@
     <t>Email</t>
   </si>
   <si>
+    <t>cornea</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>lung</t>
+  </si>
+  <si>
+    <t>pancreas</t>
+  </si>
+  <si>
     <t>malin</t>
   </si>
   <si>
     <t>psword</t>
   </si>
   <si>
+    <t>malinhosp@gmail.com</t>
+  </si>
+  <si>
     <t>aspatre</t>
   </si>
   <si>
     <t>helloworld</t>
   </si>
   <si>
+    <t>aspatrehosp@gmail.com</t>
+  </si>
+  <si>
     <t>lazarett</t>
   </si>
   <si>
     <t>savlives</t>
   </si>
   <si>
+    <t>lazaretthosp@gmail.com</t>
+  </si>
+  <si>
     <t>ospedale</t>
   </si>
   <si>
     <t>iloquis</t>
   </si>
   <si>
+    <t>ospedalehosp@gmail.com</t>
+  </si>
+  <si>
     <t>ziekenhuis</t>
   </si>
   <si>
     <t>medsch</t>
   </si>
   <si>
-    <t>aspatal</t>
-  </si>
-  <si>
-    <t>q4Cs99Bvm</t>
-  </si>
-  <si>
-    <t>mustashfaa</t>
-  </si>
-  <si>
-    <t>5sC5Q4Mn6</t>
-  </si>
-  <si>
-    <t>halemai</t>
-  </si>
-  <si>
-    <t>tSQ3h9q&amp;nTY5</t>
-  </si>
-  <si>
-    <t>hastane</t>
-  </si>
-  <si>
-    <t>EV!YX80L2MoM</t>
-  </si>
-  <si>
-    <t>krankenhaus</t>
-  </si>
-  <si>
-    <t>z@YRu^7@Eb78</t>
+    <t>ziekenhuishosp@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -146,8 +149,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -457,16 +460,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="32.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -482,146 +492,190 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <f>CONCATENATE(B2,"hosp[#This Row], gmail.com")</f>
-      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
-        <f>CONCATENATE(B3,"hosp[#This Row], gmail.com")</f>
-      </c>
+      <c r="K3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <f>CONCATENATE(B4,"hosp[#This Row], gmail.com")</f>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4">
-        <f>CONCATENATE(B5,"hosp[#This Row], gmail.com")</f>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
-        <f>CONCATENATE(B6,"hosp[#This Row], gmail.com")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4">
-        <f>CONCATENATE(B7,"hosp[#This Row], gmail.com")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4">
-        <f>CONCATENATE(B8,"hosp[#This Row], gmail.com")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4">
-        <f>CONCATENATE(B9,"hosp[#This Row], gmail.com")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4">
-        <f>CONCATENATE(B10,"hosp[#This Row], gmail.com")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4">
-        <f>CONCATENATE(B11,"hosp[#This Row], gmail.com")</f>
-      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
